--- a/relazioni/grafici es2.xlsx
+++ b/relazioni/grafici es2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="14400" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -244,31 +244,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.086827</c:v>
+                  <c:v>0.09551</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.318133</c:v>
+                  <c:v>0.639847</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2565108</c:v>
+                  <c:v>0.916471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.250485</c:v>
+                  <c:v>0.8022935</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27438138</c:v>
+                  <c:v>0.738701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2890746</c:v>
+                  <c:v>0.75991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.313166</c:v>
+                  <c:v>0.73273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.3447063</c:v>
+                  <c:v>0.816005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39987</c:v>
+                  <c:v>0.9069943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -349,31 +349,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.097281</c:v>
+                  <c:v>0.0994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7556251</c:v>
+                  <c:v>0.91133</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.62169</c:v>
+                  <c:v>3.261553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4826258</c:v>
+                  <c:v>4.43344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2799</c:v>
+                  <c:v>4.834594</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.084719</c:v>
+                  <c:v>4.87463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72960177</c:v>
+                  <c:v>4.44132</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46328358</c:v>
+                  <c:v>3.54932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18467</c:v>
+                  <c:v>2.136315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,7 +381,6 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="r"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -389,11 +388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="987796384"/>
-        <c:axId val="987794064"/>
+        <c:axId val="1123306736"/>
+        <c:axId val="1218724880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="987796384"/>
+        <c:axId val="1123306736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="105.0"/>
@@ -457,6 +456,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -493,12 +493,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987794064"/>
+        <c:crossAx val="1218724880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="987794064"/>
+        <c:axId val="1218724880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -610,7 +610,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987796384"/>
+        <c:crossAx val="1123306736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -840,31 +840,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.90897</c:v>
+                  <c:v>0.968</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4522062</c:v>
+                  <c:v>0.73127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1452948</c:v>
+                  <c:v>0.3105213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.10926955</c:v>
+                  <c:v>0.182321</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10659011</c:v>
+                  <c:v>0.13847</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1039405</c:v>
+                  <c:v>0.129747</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.102549</c:v>
+                  <c:v>0.1074273</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1046312</c:v>
+                  <c:v>0.103214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1097</c:v>
+                  <c:v>0.09927</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,31 +944,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.979817</c:v>
+                  <c:v>0.9937937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.83299</c:v>
+                  <c:v>0.9401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47609</c:v>
+                  <c:v>0.75378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2774821</c:v>
+                  <c:v>0.58709</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.190525</c:v>
+                  <c:v>0.47177</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14038417</c:v>
+                  <c:v>0.38864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0803823</c:v>
+                  <c:v>0.27594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.041756766</c:v>
+                  <c:v>0.16751</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.013395</c:v>
+                  <c:v>0.07494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,11 +983,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="987723904"/>
-        <c:axId val="987763824"/>
+        <c:axId val="1218757744"/>
+        <c:axId val="1218761088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="987723904"/>
+        <c:axId val="1218757744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,12 +1085,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987763824"/>
+        <c:crossAx val="1218761088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="987763824"/>
+        <c:axId val="1218761088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="987723904"/>
+        <c:crossAx val="1218757744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,31 +1432,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.02142</c:v>
+                  <c:v>0.0069</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.036257</c:v>
+                  <c:v>0.0086</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0436889</c:v>
+                  <c:v>0.0139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03829264</c:v>
+                  <c:v>0.01526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0325781</c:v>
+                  <c:v>0.01433</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0288301</c:v>
+                  <c:v>0.01419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0251677</c:v>
+                  <c:v>0.01242</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0219516</c:v>
+                  <c:v>0.01004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0183</c:v>
+                  <c:v>0.00912</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,31 +1536,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.0204598</c:v>
+                  <c:v>0.00675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0237392</c:v>
+                  <c:v>0.00708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03773</c:v>
+                  <c:v>0.00857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.054146</c:v>
+                  <c:v>0.01092</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.064495</c:v>
+                  <c:v>0.0127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0676756</c:v>
+                  <c:v>0.01438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.076013</c:v>
+                  <c:v>0.01754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.068661</c:v>
+                  <c:v>0.02212</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.065815</c:v>
+                  <c:v>0.024584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,11 +1575,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="985838528"/>
-        <c:axId val="985823248"/>
+        <c:axId val="1123336944"/>
+        <c:axId val="1218740896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="985838528"/>
+        <c:axId val="1123336944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,12 +1677,12 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985823248"/>
+        <c:crossAx val="1218740896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="985823248"/>
+        <c:axId val="1218740896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="985838528"/>
+        <c:crossAx val="1123336944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3551,16 +3551,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>788810</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83255</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>661809</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153811</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3583,14 +3583,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>663222</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>253999</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28223</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>112890</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3907,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D4:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3953,31 +3953,31 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>8.6827000000000001E-2</v>
+        <v>9.5509999999999998E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.318133</v>
+        <v>0.63984700000000005</v>
       </c>
       <c r="G5" s="1">
-        <v>0.25651079999999998</v>
+        <v>0.91647100000000004</v>
       </c>
       <c r="H5">
-        <v>0.25048500000000001</v>
+        <v>0.80229349999999999</v>
       </c>
       <c r="I5">
-        <v>0.27438138000000001</v>
+        <v>0.73870100000000005</v>
       </c>
       <c r="J5">
-        <v>0.28907460000000001</v>
+        <v>0.75990999999999997</v>
       </c>
       <c r="K5">
-        <v>0.313166</v>
+        <v>0.73272999999999999</v>
       </c>
       <c r="L5">
-        <v>0.34470630000000002</v>
+        <v>0.81600499999999998</v>
       </c>
       <c r="M5">
-        <v>0.39987</v>
+        <v>0.90699430000000003</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.2">
@@ -3985,31 +3985,31 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0.90896999999999994</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F6" s="1">
-        <v>0.4522062</v>
+        <v>0.73126999999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>0.1452948</v>
+        <v>0.3105213</v>
       </c>
       <c r="H6">
-        <v>0.10926954999999999</v>
+        <v>0.18232100000000001</v>
       </c>
       <c r="I6">
-        <v>0.10659011</v>
+        <v>0.13847000000000001</v>
       </c>
       <c r="J6">
-        <v>0.10394050000000001</v>
+        <v>0.129747</v>
       </c>
       <c r="K6">
-        <v>0.102549</v>
+        <v>0.1074273</v>
       </c>
       <c r="L6">
-        <v>0.10463119999999999</v>
+        <v>0.103214</v>
       </c>
       <c r="M6">
-        <v>0.10970000000000001</v>
+        <v>9.9269999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.2">
@@ -4017,31 +4017,31 @@
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>2.1420000000000002E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="F7" s="1">
-        <v>3.6256999999999998E-2</v>
+        <v>8.6E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>4.3688900000000003E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
       <c r="H7" s="1">
-        <v>3.8292640000000003E-2</v>
+        <v>1.5259999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>3.2578099999999999E-2</v>
+        <v>1.4330000000000001E-2</v>
       </c>
       <c r="J7">
-        <v>2.8830100000000001E-2</v>
+        <v>1.4189999999999999E-2</v>
       </c>
       <c r="K7">
-        <v>2.5167700000000001E-2</v>
+        <v>1.242E-2</v>
       </c>
       <c r="L7">
-        <v>2.1951600000000002E-2</v>
+        <v>1.004E-2</v>
       </c>
       <c r="M7">
-        <v>1.83E-2</v>
+        <v>9.1199999999999996E-3</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.2">
@@ -4081,31 +4081,31 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>9.7281000000000006E-2</v>
+        <v>9.9400000000000002E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.75562510000000005</v>
+        <v>0.91132999999999997</v>
       </c>
       <c r="G11" s="1">
-        <v>1.6216900000000001</v>
+        <v>3.2615530000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1.4826258000000001</v>
+        <v>4.43344</v>
       </c>
       <c r="I11" s="1">
-        <v>1.2799</v>
+        <v>4.8345940000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>1.084719</v>
+        <v>4.8746299999999998</v>
       </c>
       <c r="K11" s="1">
-        <v>0.72960177000000004</v>
+        <v>4.4413200000000002</v>
       </c>
       <c r="L11" s="1">
-        <v>0.46328357999999997</v>
+        <v>3.5493199999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>0.18467</v>
+        <v>2.1363150000000002</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.2">
@@ -4113,31 +4113,31 @@
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>0.97981700000000005</v>
+        <v>0.9937937</v>
       </c>
       <c r="F12" s="1">
-        <v>0.83299000000000001</v>
+        <v>0.94010000000000005</v>
       </c>
       <c r="G12" s="1">
-        <v>0.47609000000000001</v>
+        <v>0.75378000000000001</v>
       </c>
       <c r="H12">
-        <v>0.27748210000000001</v>
+        <v>0.58709</v>
       </c>
       <c r="I12">
-        <v>0.190525</v>
+        <v>0.47177000000000002</v>
       </c>
       <c r="J12">
-        <v>0.14038417</v>
+        <v>0.38863999999999999</v>
       </c>
       <c r="K12">
-        <v>8.0382300000000004E-2</v>
+        <v>0.27594000000000002</v>
       </c>
       <c r="L12">
-        <v>4.1756766000000001E-2</v>
+        <v>0.16750999999999999</v>
       </c>
       <c r="M12">
-        <v>1.3395000000000001E-2</v>
+        <v>7.4940000000000007E-2</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.2">
@@ -4145,31 +4145,31 @@
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>2.04598E-2</v>
+        <v>6.7499999999999999E-3</v>
       </c>
       <c r="F13" s="1">
-        <v>2.3739199999999998E-2</v>
+        <v>7.0800000000000004E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>3.773E-2</v>
+        <v>8.5699999999999995E-3</v>
       </c>
       <c r="H13" s="1">
-        <v>5.4146E-2</v>
+        <v>1.0919999999999999E-2</v>
       </c>
       <c r="I13" s="1">
-        <v>6.4494999999999997E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="J13">
-        <v>6.7675600000000002E-2</v>
+        <v>1.438E-2</v>
       </c>
       <c r="K13">
-        <v>7.6012999999999997E-2</v>
+        <v>1.754E-2</v>
       </c>
       <c r="L13">
-        <v>6.8661E-2</v>
+        <v>2.2120000000000001E-2</v>
       </c>
       <c r="M13">
-        <v>6.5814999999999999E-2</v>
+        <v>2.4584000000000002E-2</v>
       </c>
     </row>
   </sheetData>
